--- a/final/new_neighborhood_by_year_for_all_scenarios.xlsx
+++ b/final/new_neighborhood_by_year_for_all_scenarios.xlsx
@@ -449,488 +449,610 @@
       <c r="A2" t="n">
         <v>610</v>
       </c>
-      <c r="B2" t="n">
-        <v>2035</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>701</v>
       </c>
-      <c r="B3" t="n">
-        <v>2020</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>703</v>
       </c>
-      <c r="B4" t="n">
-        <v>2030</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>704</v>
       </c>
-      <c r="B5" t="n">
-        <v>2035</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>705</v>
       </c>
-      <c r="B6" t="n">
-        <v>2030</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>706</v>
       </c>
-      <c r="B7" t="n">
-        <v>2035</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>707</v>
       </c>
-      <c r="B8" t="n">
-        <v>2020</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>708</v>
       </c>
-      <c r="B9" t="n">
-        <v>2035</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>3102</v>
       </c>
-      <c r="B10" t="n">
-        <v>2025</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>3113</v>
       </c>
-      <c r="B11" t="n">
-        <v>2035</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>3308</v>
       </c>
-      <c r="B12" t="n">
-        <v>2025</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>3309</v>
       </c>
-      <c r="B13" t="n">
-        <v>2030</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>3504</v>
       </c>
-      <c r="B14" t="n">
-        <v>2030</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>3902</v>
       </c>
-      <c r="B15" t="n">
-        <v>2025</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>3904</v>
       </c>
-      <c r="B16" t="n">
-        <v>2025</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>4602</v>
       </c>
-      <c r="B17" t="n">
-        <v>2035</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>4611</v>
       </c>
-      <c r="B18" t="n">
-        <v>2030</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5503</v>
       </c>
-      <c r="B19" t="n">
-        <v>2040</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5905</v>
       </c>
-      <c r="B20" t="n">
-        <v>2025</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5907</v>
       </c>
-      <c r="B21" t="n">
-        <v>2025</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>7025</v>
       </c>
-      <c r="B22" t="n">
-        <v>2035</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>7026</v>
       </c>
-      <c r="B23" t="n">
-        <v>2030</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>7027</v>
       </c>
-      <c r="B24" t="n">
-        <v>2035</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>7028</v>
       </c>
-      <c r="B25" t="n">
-        <v>2040</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>7062</v>
       </c>
-      <c r="B26" t="n">
-        <v>2045</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2045</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>7064</v>
       </c>
-      <c r="B27" t="n">
-        <v>2035</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>7221</v>
       </c>
-      <c r="B28" t="n">
-        <v>2035</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>7310</v>
       </c>
-      <c r="B29" t="n">
-        <v>2035</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>7421</v>
       </c>
-      <c r="B30" t="n">
-        <v>2030</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>7504</v>
       </c>
-      <c r="B31" t="n">
-        <v>2030</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>7626</v>
       </c>
-      <c r="B32" t="n">
-        <v>2020</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>7704</v>
       </c>
-      <c r="B33" t="n">
-        <v>2020</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>7912</v>
       </c>
-      <c r="B34" t="n">
-        <v>2025</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>8404</v>
       </c>
-      <c r="B35" t="n">
-        <v>2020</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>8444</v>
       </c>
-      <c r="B36" t="n">
-        <v>2030</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>8445</v>
       </c>
-      <c r="B37" t="n">
-        <v>2030</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>8447</v>
       </c>
-      <c r="B38" t="n">
-        <v>2025</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>8448</v>
       </c>
-      <c r="B39" t="n">
-        <v>2025</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>8456</v>
       </c>
-      <c r="B40" t="n">
-        <v>2020</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>8462</v>
       </c>
-      <c r="B41" t="n">
-        <v>2020</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>8463</v>
       </c>
-      <c r="B42" t="n">
-        <v>2020</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>8464</v>
       </c>
-      <c r="B43" t="n">
-        <v>2025</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>8465</v>
       </c>
-      <c r="B44" t="n">
-        <v>2025</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>8473</v>
       </c>
-      <c r="B45" t="n">
-        <v>2020</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>8474</v>
       </c>
-      <c r="B46" t="n">
-        <v>2020</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>8475</v>
       </c>
-      <c r="B47" t="n">
-        <v>2025</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>8476</v>
       </c>
-      <c r="B48" t="n">
-        <v>2025</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>8477</v>
       </c>
-      <c r="B49" t="n">
-        <v>2030</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>8481</v>
       </c>
-      <c r="B50" t="n">
-        <v>2030</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>8482</v>
       </c>
-      <c r="B51" t="n">
-        <v>2030</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>8483</v>
       </c>
-      <c r="B52" t="n">
-        <v>2030</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>8484</v>
       </c>
-      <c r="B53" t="n">
-        <v>2040</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>8485</v>
       </c>
-      <c r="B54" t="n">
-        <v>2040</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>8614</v>
       </c>
-      <c r="B55" t="n">
-        <v>2020</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>8615</v>
       </c>
-      <c r="B56" t="n">
-        <v>2025</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>8623</v>
       </c>
-      <c r="B57" t="n">
-        <v>2025</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>8681</v>
       </c>
-      <c r="B58" t="n">
-        <v>2025</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>8722</v>
       </c>
-      <c r="B59" t="n">
-        <v>2045</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2045</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>8731</v>
       </c>
-      <c r="B60" t="n">
-        <v>2030</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>8823</v>
       </c>
-      <c r="B61" t="n">
-        <v>2025</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>8953</v>
       </c>
-      <c r="B62" t="n">
-        <v>2035</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
   </sheetData>
